--- a/results/Distorted_greedy/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/Distorted_greedy/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>826.9910076585455</v>
+        <v>472.2826626326101</v>
       </c>
       <c r="H2">
-        <v>164.8056408535981</v>
+        <v>71.59391356899059</v>
       </c>
       <c r="I2">
-        <v>662.1853668049474</v>
+        <v>400.6887490636195</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K2">
-        <v>662.1853668049474</v>
+        <v>400.6887490636194</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>826.9910076585455</v>
+        <v>472.2826626326101</v>
       </c>
       <c r="P2">
-        <v>164.8056408535981</v>
+        <v>71.59391356899059</v>
       </c>
       <c r="Q2">
-        <v>1.613026976146464</v>
+        <v>1.886567603515629</v>
       </c>
       <c r="R2">
-        <v>396.349422286988</v>
+        <v>265.6219911154639</v>
       </c>
       <c r="S2">
-        <v>5.017977560568979</v>
+        <v>6.596687331214278</v>
       </c>
       <c r="T2">
-        <v>5.017977560568979</v>
+        <v>6.596687331214278</v>
       </c>
       <c r="U2">
-        <v>1.613026976146464</v>
+        <v>1.886567603515629</v>
       </c>
       <c r="V2">
-        <v>396.349422286988</v>
+        <v>265.6219911154639</v>
       </c>
       <c r="W2">
-        <v>282.1084700126186</v>
+        <v>543.6050877539465</v>
       </c>
       <c r="X2">
         <v>944.293836817566</v>
       </c>
       <c r="Y2">
-        <v>282.1084700126186</v>
+        <v>543.6050877539466</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>912.941399410764</v>
+        <v>551.4561814957559</v>
       </c>
       <c r="H3">
-        <v>126.0916431760056</v>
+        <v>42.80290432225114</v>
       </c>
       <c r="I3">
-        <v>786.8497562347584</v>
+        <v>508.6532771735048</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K3">
-        <v>803.9741864503635</v>
+        <v>508.6532771735046</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N3">
-        <v>0.9787002735856342</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>929.5178375631195</v>
+        <v>551.4561814957559</v>
       </c>
       <c r="P3">
-        <v>125.543651112756</v>
+        <v>42.80290432225114</v>
       </c>
       <c r="Q3">
-        <v>2.0020124817414</v>
+        <v>2.555956423938099</v>
       </c>
       <c r="R3">
-        <v>552.6342299192385</v>
+        <v>399.2509189078392</v>
       </c>
       <c r="S3">
-        <v>7.403941412603023</v>
+        <v>12.88361596549608</v>
       </c>
       <c r="T3">
-        <v>7.240300597371314</v>
+        <v>12.88361596549608</v>
       </c>
       <c r="U3">
-        <v>1.979662724509675</v>
+        <v>2.555956423938099</v>
       </c>
       <c r="V3">
-        <v>537.2308303670454</v>
+        <v>399.2509189078392</v>
       </c>
       <c r="W3">
-        <v>168.390674411855</v>
+        <v>446.5871534731086</v>
       </c>
       <c r="X3">
         <v>955.2404306466134</v>
       </c>
       <c r="Y3">
-        <v>151.2662441962499</v>
+        <v>446.5871534731088</v>
       </c>
       <c r="Z3">
-        <v>1.113207214911664</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>1032.288359770159</v>
+        <v>614.5437998655553</v>
       </c>
       <c r="H4">
-        <v>124.8839954274364</v>
+        <v>62.59745102064366</v>
       </c>
       <c r="I4">
-        <v>907.4043643427223</v>
+        <v>551.9463488449117</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K4">
-        <v>911.580570287958</v>
+        <v>551.9463488449119</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N4">
-        <v>0.9954187198791253</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="O4">
-        <v>1040.112745087449</v>
+        <v>614.5437998655553</v>
       </c>
       <c r="P4">
-        <v>128.5321747994915</v>
+        <v>62.59745102064366</v>
       </c>
       <c r="Q4">
-        <v>2.090905134459322</v>
+        <v>2.284155644951589</v>
       </c>
       <c r="R4">
-        <v>642.8319860564782</v>
+        <v>408.9640277365278</v>
       </c>
       <c r="S4">
-        <v>8.092236412478135</v>
+        <v>9.817393357804432</v>
       </c>
       <c r="T4">
-        <v>8.265978008126494</v>
+        <v>9.817393357804432</v>
       </c>
       <c r="U4">
-        <v>2.112148055564164</v>
+        <v>2.284155644951589</v>
       </c>
       <c r="V4">
-        <v>643.6308762295786</v>
+        <v>408.9640277365278</v>
       </c>
       <c r="W4">
-        <v>218.3041902760061</v>
+        <v>573.7622057738167</v>
       </c>
       <c r="X4">
         <v>1125.708554618728</v>
       </c>
       <c r="Y4">
-        <v>214.1279843307703</v>
+        <v>573.7622057738165</v>
       </c>
       <c r="Z4">
-        <v>1.019503316945181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>998.727729517846</v>
+        <v>543.3256927652867</v>
       </c>
       <c r="H5">
-        <v>215.6475364580048</v>
+        <v>71.96504655983526</v>
       </c>
       <c r="I5">
-        <v>783.0801930598412</v>
+        <v>471.3606462054514</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K5">
-        <v>803.650222023701</v>
+        <v>476.1118330288332</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N5">
-        <v>0.9744042515012793</v>
+        <v>0.9900208596094815</v>
       </c>
       <c r="O5">
-        <v>963.4324098575811</v>
+        <v>545.1922215644006</v>
       </c>
       <c r="P5">
-        <v>159.7821878338804</v>
+        <v>69.08038853556735</v>
       </c>
       <c r="Q5">
-        <v>1.796690773003453</v>
+        <v>2.06586755490551</v>
       </c>
       <c r="R5">
-        <v>516.571039452263</v>
+        <v>333.4008996729381</v>
       </c>
       <c r="S5">
-        <v>6.029660895989394</v>
+        <v>7.892141794826443</v>
       </c>
       <c r="T5">
-        <v>4.631296725767782</v>
+        <v>7.549855363652675</v>
       </c>
       <c r="U5">
-        <v>1.532836899245973</v>
+        <v>2.021528405945337</v>
       </c>
       <c r="V5">
-        <v>452.5276919455203</v>
+        <v>325.8812603495657</v>
       </c>
       <c r="W5">
-        <v>262.1127006291052</v>
+        <v>573.8322474834951</v>
       </c>
       <c r="X5">
         <v>1045.192893688946</v>
       </c>
       <c r="Y5">
-        <v>241.5426716652455</v>
+        <v>569.0810606601133</v>
       </c>
       <c r="Z5">
-        <v>1.085161055899753</v>
+        <v>1.008348875321682</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>987.1771066683214</v>
+        <v>619.4099554160166</v>
       </c>
       <c r="H6">
-        <v>138.4708632166977</v>
+        <v>53.10131518302816</v>
       </c>
       <c r="I6">
-        <v>848.7062434516237</v>
+        <v>566.3086402329884</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K6">
-        <v>848.7062434516238</v>
+        <v>566.3086402329884</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>987.1771066683214</v>
+        <v>619.4099554160166</v>
       </c>
       <c r="P6">
-        <v>138.4708632166977</v>
+        <v>53.10131518302816</v>
       </c>
       <c r="Q6">
-        <v>1.964189533107382</v>
+        <v>2.456565644103617</v>
       </c>
       <c r="R6">
-        <v>576.723223281042</v>
+        <v>435.8617736976437</v>
       </c>
       <c r="S6">
-        <v>7.129132322396623</v>
+        <v>11.66468200045614</v>
       </c>
       <c r="T6">
-        <v>7.129132322396623</v>
+        <v>11.66468200045614</v>
       </c>
       <c r="U6">
-        <v>1.964189533107382</v>
+        <v>2.456565644103617</v>
       </c>
       <c r="V6">
-        <v>576.723223281042</v>
+        <v>435.8617736976437</v>
       </c>
       <c r="W6">
-        <v>179.3224487962221</v>
+        <v>461.7200520148574</v>
       </c>
       <c r="X6">
         <v>1028.028692247846</v>
       </c>
       <c r="Y6">
-        <v>179.322448796222</v>
+        <v>461.7200520148574</v>
       </c>
       <c r="Z6">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>993.036352487185</v>
+        <v>588.9215173437891</v>
       </c>
       <c r="H7">
-        <v>144.4909233276634</v>
+        <v>52.3555157166066</v>
       </c>
       <c r="I7">
-        <v>848.5454291595216</v>
+        <v>536.5660016271825</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K7">
-        <v>889.6043142141971</v>
+        <v>536.5660016271825</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N7">
-        <v>0.9538459016007095</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>1015.337390270881</v>
+        <v>588.9215173437891</v>
       </c>
       <c r="P7">
-        <v>125.733076056684</v>
+        <v>52.3555157166066</v>
       </c>
       <c r="Q7">
-        <v>2.088815024569283</v>
+        <v>2.420235633409122</v>
       </c>
       <c r="R7">
-        <v>626.9711758616828</v>
+        <v>409.8533168843398</v>
       </c>
       <c r="S7">
-        <v>8.075340412519122</v>
+        <v>11.24850952727775</v>
       </c>
       <c r="T7">
-        <v>6.872655593979888</v>
+        <v>11.24850952727775</v>
       </c>
       <c r="U7">
-        <v>1.927550580885359</v>
+        <v>2.420235633409122</v>
       </c>
       <c r="V7">
-        <v>570.0318659666221</v>
+        <v>409.8533168843398</v>
       </c>
       <c r="W7">
-        <v>202.0128862995908</v>
+        <v>513.99231383193</v>
       </c>
       <c r="X7">
         <v>1050.558315459112</v>
       </c>
       <c r="Y7">
-        <v>160.9540012449154</v>
+        <v>513.99231383193</v>
       </c>
       <c r="Z7">
-        <v>1.255097013662918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>997.8255915801615</v>
+        <v>658.9055008379647</v>
       </c>
       <c r="H8">
-        <v>125.7012679963373</v>
+        <v>136.6283237824729</v>
       </c>
       <c r="I8">
-        <v>872.1243235838242</v>
+        <v>522.2771770554918</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K8">
-        <v>872.2969157683831</v>
+        <v>522.2771770554918</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N8">
-        <v>0.9998021405539341</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>991.3786179361476</v>
+        <v>658.9055008379647</v>
       </c>
       <c r="P8">
-        <v>119.0817021677646</v>
+        <v>136.6283237824729</v>
       </c>
       <c r="Q8">
-        <v>2.119286687442573</v>
+        <v>1.573315852424747</v>
       </c>
       <c r="R8">
-        <v>619.9286496462381</v>
+        <v>307.317669358306</v>
       </c>
       <c r="S8">
-        <v>8.325196901699258</v>
+        <v>4.822612783327515</v>
       </c>
       <c r="T8">
-        <v>7.938071011417611</v>
+        <v>4.822612783327515</v>
       </c>
       <c r="U8">
-        <v>2.071670300077677</v>
+        <v>1.573315852424747</v>
       </c>
       <c r="V8">
-        <v>611.7127399937076</v>
+        <v>307.317669358306</v>
       </c>
       <c r="W8">
-        <v>230.2543921959245</v>
+        <v>580.1015387242569</v>
       </c>
       <c r="X8">
         <v>1102.378715779749</v>
       </c>
       <c r="Y8">
-        <v>230.0818000113657</v>
+        <v>580.1015387242569</v>
       </c>
       <c r="Z8">
-        <v>1.0007501340156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>935.0285366170306</v>
+        <v>434.4688585088102</v>
       </c>
       <c r="H9">
-        <v>167.9054722455739</v>
+        <v>39.57014490547107</v>
       </c>
       <c r="I9">
-        <v>767.1230643714566</v>
+        <v>394.8987136033391</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K9">
-        <v>775.9535713270766</v>
+        <v>440.1285578452625</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N9">
-        <v>0.9886197998412231</v>
+        <v>0.8972349250333693</v>
       </c>
       <c r="O9">
-        <v>979.6674177494514</v>
+        <v>563.1137811743922</v>
       </c>
       <c r="P9">
-        <v>203.7138464223749</v>
+        <v>122.9852233291296</v>
       </c>
       <c r="Q9">
-        <v>1.570496848917593</v>
+        <v>1.521417493101302</v>
       </c>
       <c r="R9">
-        <v>456.0216174398542</v>
+        <v>253.0166876793543</v>
       </c>
       <c r="S9">
-        <v>4.809036965107589</v>
+        <v>4.578710888440661</v>
       </c>
       <c r="T9">
-        <v>5.568779409699546</v>
+        <v>10.97971360849728</v>
       </c>
       <c r="U9">
-        <v>1.717175893426098</v>
+        <v>2.396049352726398</v>
       </c>
       <c r="V9">
-        <v>478.7998350570324</v>
+        <v>300.0866935152954</v>
       </c>
       <c r="W9">
-        <v>295.1740707417446</v>
+        <v>667.3984215098621</v>
       </c>
       <c r="X9">
         <v>1062.297135113201</v>
       </c>
       <c r="Y9">
-        <v>286.3435637861246</v>
+        <v>622.1685772679386</v>
       </c>
       <c r="Z9">
-        <v>1.030838852596721</v>
+        <v>1.072697088690233</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>877.2903603115437</v>
+        <v>460.4440461525583</v>
       </c>
       <c r="H10">
-        <v>194.5341862377728</v>
+        <v>67.8078102187566</v>
       </c>
       <c r="I10">
-        <v>682.7561740737709</v>
+        <v>392.6362359338017</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K10">
-        <v>682.7561740737708</v>
+        <v>392.6362359338016</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>877.2903603115437</v>
+        <v>460.4440461525583</v>
       </c>
       <c r="P10">
-        <v>194.5341862377728</v>
+        <v>67.8078102187566</v>
       </c>
       <c r="Q10">
-        <v>1.506230108837336</v>
+        <v>1.915513958307733</v>
       </c>
       <c r="R10">
-        <v>389.7429255642678</v>
+        <v>262.7494289774917</v>
       </c>
       <c r="S10">
-        <v>4.509697638641572</v>
+        <v>6.790427897127297</v>
       </c>
       <c r="T10">
-        <v>4.509697638641572</v>
+        <v>6.790427897127297</v>
       </c>
       <c r="U10">
-        <v>1.506230108837336</v>
+        <v>1.915513958307733</v>
       </c>
       <c r="V10">
-        <v>389.7429255642678</v>
+        <v>262.7494289774917</v>
       </c>
       <c r="W10">
-        <v>284.0422214227194</v>
+        <v>574.1621595626887</v>
       </c>
       <c r="X10">
         <v>966.7983954964903</v>
       </c>
       <c r="Y10">
-        <v>284.0422214227195</v>
+        <v>574.1621595626888</v>
       </c>
       <c r="Z10">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>877.9226613709614</v>
+        <v>439.7345571645089</v>
       </c>
       <c r="H11">
-        <v>125.6493745039628</v>
+        <v>50.71571091189293</v>
       </c>
       <c r="I11">
-        <v>752.2732868669985</v>
+        <v>389.018846252616</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K11">
-        <v>752.2732868669984</v>
+        <v>391.3209032251618</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0.9941172144049222</v>
       </c>
       <c r="O11">
-        <v>877.9226613709614</v>
+        <v>515.4063095281165</v>
       </c>
       <c r="P11">
-        <v>125.6493745039628</v>
+        <v>124.0854063029547</v>
       </c>
       <c r="Q11">
-        <v>1.94406321886156</v>
+        <v>1.423985451119811</v>
       </c>
       <c r="R11">
-        <v>508.0029594208831</v>
+        <v>214.6250899534638</v>
       </c>
       <c r="S11">
-        <v>6.987083420325925</v>
+        <v>4.153641631875316</v>
       </c>
       <c r="T11">
-        <v>6.987083420325925</v>
+        <v>8.670578589117053</v>
       </c>
       <c r="U11">
-        <v>1.94406321886156</v>
+        <v>2.159935523181372</v>
       </c>
       <c r="V11">
-        <v>508.0029594208831</v>
+        <v>279.4761806706213</v>
       </c>
       <c r="W11">
-        <v>266.5096266442032</v>
+        <v>629.7640672585858</v>
       </c>
       <c r="X11">
         <v>1018.782913511202</v>
       </c>
       <c r="Y11">
-        <v>266.5096266442033</v>
+        <v>627.4620102860399</v>
       </c>
       <c r="Z11">
-        <v>0.9999999999999996</v>
+        <v>1.003668838805869</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>935.0859537783667</v>
+        <v>459.1092285496929</v>
       </c>
       <c r="H12">
-        <v>164.6475439837253</v>
+        <v>36.3474988627501</v>
       </c>
       <c r="I12">
-        <v>770.4384097946415</v>
+        <v>422.7617296869428</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K12">
-        <v>779.33574134013</v>
+        <v>422.7617296869428</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N12">
-        <v>0.9885834421886147</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>907.3184647118813</v>
+        <v>459.1092285496929</v>
       </c>
       <c r="P12">
-        <v>127.9827233717513</v>
+        <v>36.3474988627501</v>
       </c>
       <c r="Q12">
-        <v>1.95859822609192</v>
+        <v>2.536162757911322</v>
       </c>
       <c r="R12">
-        <v>528.6690063738051</v>
+        <v>330.5785567280119</v>
       </c>
       <c r="S12">
-        <v>7.089382385436465</v>
+        <v>12.63110923486954</v>
       </c>
       <c r="T12">
-        <v>5.679319175698097</v>
+        <v>12.63110923486954</v>
       </c>
       <c r="U12">
-        <v>1.736831362115431</v>
+        <v>2.536162757911322</v>
       </c>
       <c r="V12">
-        <v>484.4733917084276</v>
+        <v>330.5785567280119</v>
       </c>
       <c r="W12">
-        <v>209.4833808524538</v>
+        <v>557.1600609601526</v>
       </c>
       <c r="X12">
         <v>979.9217906470953</v>
       </c>
       <c r="Y12">
-        <v>200.5860493069654</v>
+        <v>557.1600609601526</v>
       </c>
       <c r="Z12">
-        <v>1.044356681714552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>1010.403077700276</v>
+        <v>602.5605061983042</v>
       </c>
       <c r="H13">
-        <v>131.5968177076315</v>
+        <v>43.02414429659054</v>
       </c>
       <c r="I13">
-        <v>878.8062599926446</v>
+        <v>559.5363619017137</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K13">
-        <v>878.806259992645</v>
+        <v>559.5363619017139</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N13">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="O13">
-        <v>1010.403077700276</v>
+        <v>602.5605061983042</v>
       </c>
       <c r="P13">
-        <v>131.5968177076315</v>
+        <v>43.02414429659054</v>
       </c>
       <c r="Q13">
-        <v>2.038361780007407</v>
+        <v>2.639426632164311</v>
       </c>
       <c r="R13">
-        <v>610.5643364068067</v>
+        <v>445.9772896192123</v>
       </c>
       <c r="S13">
-        <v>7.678020603393978</v>
+        <v>14.00517119049487</v>
       </c>
       <c r="T13">
-        <v>7.678020603393978</v>
+        <v>14.00517119049487</v>
       </c>
       <c r="U13">
-        <v>2.038361780007407</v>
+        <v>2.639426632164311</v>
       </c>
       <c r="V13">
-        <v>610.5643364068067</v>
+        <v>445.9772896192123</v>
       </c>
       <c r="W13">
-        <v>195.5837876860249</v>
+        <v>514.8536857769559</v>
       </c>
       <c r="X13">
         <v>1074.39004767867</v>
       </c>
       <c r="Y13">
-        <v>195.5837876860246</v>
+        <v>514.8536857769557</v>
       </c>
       <c r="Z13">
-        <v>1.000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>996.0382092127311</v>
+        <v>650.3515440062891</v>
       </c>
       <c r="H14">
-        <v>165.3449576627464</v>
+        <v>73.95324613879065</v>
       </c>
       <c r="I14">
-        <v>830.6932515499848</v>
+        <v>576.3982978674985</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K14">
-        <v>844.5454654022458</v>
+        <v>576.3982978674983</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N14">
-        <v>0.9835980247130173</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1041.684261489453</v>
+        <v>650.3515440062891</v>
       </c>
       <c r="P14">
-        <v>197.1387960872069</v>
+        <v>73.95324613879065</v>
       </c>
       <c r="Q14">
-        <v>1.664686135063498</v>
+        <v>2.174079969029318</v>
       </c>
       <c r="R14">
-        <v>516.3712448727624</v>
+        <v>415.618026792459</v>
       </c>
       <c r="S14">
-        <v>5.284014522583623</v>
+        <v>8.794090563458859</v>
       </c>
       <c r="T14">
-        <v>6.02400111435117</v>
+        <v>8.794090563458859</v>
       </c>
       <c r="U14">
-        <v>1.795751675482829</v>
+        <v>2.174079969029318</v>
       </c>
       <c r="V14">
-        <v>533.7747667944705</v>
+        <v>415.618026792459</v>
       </c>
       <c r="W14">
-        <v>234.1661503229457</v>
+        <v>488.4611040054319</v>
       </c>
       <c r="X14">
         <v>1064.85940187293</v>
       </c>
       <c r="Y14">
-        <v>220.3139364706847</v>
+        <v>488.4611040054322</v>
       </c>
       <c r="Z14">
-        <v>1.062874886964331</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>1044.968382506549</v>
+        <v>628.9323296970965</v>
       </c>
       <c r="H15">
-        <v>142.8627227836758</v>
+        <v>50.79046218173238</v>
       </c>
       <c r="I15">
-        <v>902.1056597228737</v>
+        <v>578.1418675153641</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K15">
-        <v>932.0057660290917</v>
+        <v>578.1418675153641</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N15">
-        <v>0.9679185393523793</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1095.641849524988</v>
+        <v>628.9323296970965</v>
       </c>
       <c r="P15">
-        <v>163.636083495897</v>
+        <v>50.79046218173238</v>
       </c>
       <c r="Q15">
-        <v>1.901450675358476</v>
+        <v>2.516315082336832</v>
       </c>
       <c r="R15">
-        <v>620.8598245528021</v>
+        <v>450.3370614886124</v>
       </c>
       <c r="S15">
-        <v>6.695600543094523</v>
+        <v>12.38288258623688</v>
       </c>
       <c r="T15">
-        <v>7.314492977211778</v>
+        <v>12.38288258623688</v>
       </c>
       <c r="U15">
-        <v>1.989857719316844</v>
+        <v>2.516315082336832</v>
       </c>
       <c r="V15">
-        <v>617.8291679891541</v>
+        <v>450.3370614886124</v>
       </c>
       <c r="W15">
-        <v>245.4431134811477</v>
+        <v>569.4069056886574</v>
       </c>
       <c r="X15">
         <v>1147.548773204021</v>
       </c>
       <c r="Y15">
-        <v>215.5430071749298</v>
+        <v>569.4069056886574</v>
       </c>
       <c r="Z15">
-        <v>1.138719908839129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>991.4003204057014</v>
+        <v>632.4080070080846</v>
       </c>
       <c r="H16">
-        <v>228.8365185152235</v>
+        <v>124.0563559862822</v>
       </c>
       <c r="I16">
-        <v>762.563801890478</v>
+        <v>508.3516510218024</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K16">
-        <v>780.9453305191142</v>
+        <v>508.3516510218024</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N16">
-        <v>0.9764624642592874</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>1028.066037583965</v>
+        <v>632.4080070080846</v>
       </c>
       <c r="P16">
-        <v>247.1207070648504</v>
+        <v>124.0563559862822</v>
       </c>
       <c r="Q16">
-        <v>1.425557773019891</v>
+        <v>1.628798820439356</v>
       </c>
       <c r="R16">
-        <v>428.660485688645</v>
+        <v>306.2888047233412</v>
       </c>
       <c r="S16">
-        <v>4.160177630578628</v>
+        <v>5.097747729088661</v>
       </c>
       <c r="T16">
-        <v>4.332351876519866</v>
+        <v>5.097747729088661</v>
       </c>
       <c r="U16">
-        <v>1.466110553106809</v>
+        <v>1.628798820439356</v>
       </c>
       <c r="V16">
-        <v>427.0641671590872</v>
+        <v>306.2888047233412</v>
       </c>
       <c r="W16">
-        <v>285.6932439166445</v>
+        <v>539.9053947853201</v>
       </c>
       <c r="X16">
         <v>1048.257045807122</v>
       </c>
       <c r="Y16">
-        <v>267.3117152880083</v>
+        <v>539.9053947853201</v>
       </c>
       <c r="Z16">
-        <v>1.068764395936899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>1052.346607257195</v>
+        <v>589.9292545390998</v>
       </c>
       <c r="H17">
-        <v>143.2155764299567</v>
+        <v>60.43691321956091</v>
       </c>
       <c r="I17">
-        <v>909.1310308272384</v>
+        <v>529.4923413195389</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K17">
-        <v>909.1310308272384</v>
+        <v>531.2304749017627</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.9967280988867493</v>
       </c>
       <c r="O17">
-        <v>1052.346607257195</v>
+        <v>633.5311703956719</v>
       </c>
       <c r="P17">
-        <v>143.2155764299567</v>
+        <v>102.300695493909</v>
       </c>
       <c r="Q17">
-        <v>1.994426791048608</v>
+        <v>1.823392730510275</v>
       </c>
       <c r="R17">
-        <v>623.4980482998632</v>
+        <v>344.696130412024</v>
       </c>
       <c r="S17">
-        <v>7.347989886923177</v>
+        <v>6.192833463516311</v>
       </c>
       <c r="T17">
-        <v>7.347989886923177</v>
+        <v>9.761075195815334</v>
       </c>
       <c r="U17">
-        <v>1.994426791048608</v>
+        <v>2.278402557863117</v>
       </c>
       <c r="V17">
-        <v>623.4980482998632</v>
+        <v>391.7927236507401</v>
       </c>
       <c r="W17">
-        <v>207.7600292672728</v>
+        <v>587.3987187749723</v>
       </c>
       <c r="X17">
         <v>1116.891060094511</v>
       </c>
       <c r="Y17">
-        <v>207.7600292672728</v>
+        <v>585.6605851927485</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>1.002967817241196</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>948.7061235429094</v>
+        <v>587.2049647591274</v>
       </c>
       <c r="H18">
-        <v>114.4511249471861</v>
+        <v>51.4710617294152</v>
       </c>
       <c r="I18">
-        <v>834.2549985957234</v>
+        <v>535.7339030297122</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K18">
-        <v>834.2549985957237</v>
+        <v>535.7339030297123</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N18">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O18">
-        <v>948.7061235429094</v>
+        <v>587.2049647591274</v>
       </c>
       <c r="P18">
-        <v>114.4511249471861</v>
+        <v>51.4710617294152</v>
       </c>
       <c r="Q18">
-        <v>2.114951205536611</v>
+        <v>2.434354190662392</v>
       </c>
       <c r="R18">
-        <v>592.1964539136509</v>
+        <v>410.4351082108677</v>
       </c>
       <c r="S18">
-        <v>8.289181290098229</v>
+        <v>11.40844865112906</v>
       </c>
       <c r="T18">
-        <v>8.289181290098229</v>
+        <v>11.40844865112906</v>
       </c>
       <c r="U18">
-        <v>2.114951205536611</v>
+        <v>2.434354190662392</v>
       </c>
       <c r="V18">
-        <v>592.1964539136509</v>
+        <v>410.4351082108677</v>
       </c>
       <c r="W18">
-        <v>278.766138075437</v>
+        <v>577.2872336414481</v>
       </c>
       <c r="X18">
         <v>1113.02113667116</v>
       </c>
       <c r="Y18">
-        <v>278.7661380754366</v>
+        <v>577.287233641448</v>
       </c>
       <c r="Z18">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>910.6561689451227</v>
+        <v>569.5295319469429</v>
       </c>
       <c r="H19">
-        <v>133.2236909711622</v>
+        <v>92.01709705104507</v>
       </c>
       <c r="I19">
-        <v>777.4324779739604</v>
+        <v>477.5124348958979</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K19">
-        <v>787.2133246551072</v>
+        <v>477.5124348958979</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N19">
-        <v>0.9875753542593656</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O19">
-        <v>955.0233123213148</v>
+        <v>569.5295319469429</v>
       </c>
       <c r="P19">
-        <v>167.8099876662077</v>
+        <v>92.01709705104507</v>
       </c>
       <c r="Q19">
-        <v>1.738903437475937</v>
+        <v>1.8228362401689</v>
       </c>
       <c r="R19">
-        <v>495.407960259544</v>
+        <v>309.7803356761141</v>
       </c>
       <c r="S19">
-        <v>5.691099353519768</v>
+        <v>6.189388170233247</v>
       </c>
       <c r="T19">
-        <v>6.835542254584768</v>
+        <v>6.189388170233247</v>
       </c>
       <c r="U19">
-        <v>1.922135802008543</v>
+        <v>1.8228362401689</v>
       </c>
       <c r="V19">
-        <v>521.3584518825672</v>
+        <v>309.7803356761141</v>
       </c>
       <c r="W19">
-        <v>264.4171451804682</v>
+        <v>564.3371882585308</v>
       </c>
       <c r="X19">
         <v>1041.849623154429</v>
       </c>
       <c r="Y19">
-        <v>254.6362984993215</v>
+        <v>564.3371882585307</v>
       </c>
       <c r="Z19">
-        <v>1.038411046417142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>998.444561367814</v>
+        <v>596.1580166967849</v>
       </c>
       <c r="H20">
-        <v>143.6211987556318</v>
+        <v>60.43633703324576</v>
       </c>
       <c r="I20">
-        <v>854.8233626121821</v>
+        <v>535.7216796635391</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K20">
-        <v>879.1030524340025</v>
+        <v>535.7216796635391</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N20">
-        <v>0.9723812927795025</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>1027.540691428226</v>
+        <v>596.1580166967849</v>
       </c>
       <c r="P20">
-        <v>148.4376389942236</v>
+        <v>60.43633703324576</v>
       </c>
       <c r="Q20">
-        <v>1.934758617338814</v>
+        <v>2.28891523005202</v>
       </c>
       <c r="R20">
-        <v>591.9120512525005</v>
+        <v>397.388027379586</v>
       </c>
       <c r="S20">
-        <v>6.922372912898546</v>
+        <v>9.86423145348536</v>
       </c>
       <c r="T20">
-        <v>6.951930286187379</v>
+        <v>9.86423145348536</v>
       </c>
       <c r="U20">
-        <v>1.939019360034126</v>
+        <v>2.28891523005202</v>
       </c>
       <c r="V20">
-        <v>576.3390777137029</v>
+        <v>397.388027379586</v>
       </c>
       <c r="W20">
-        <v>209.7128561382506</v>
+        <v>528.8145390868935</v>
       </c>
       <c r="X20">
         <v>1064.536218750433</v>
       </c>
       <c r="Y20">
-        <v>185.4331663164302</v>
+        <v>528.8145390868935</v>
       </c>
       <c r="Z20">
-        <v>1.130934990240034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>863.1748194919825</v>
+        <v>520.7135389543884</v>
       </c>
       <c r="H21">
-        <v>141.467794716689</v>
+        <v>73.65587006289044</v>
       </c>
       <c r="I21">
-        <v>721.7070247752935</v>
+        <v>447.0576688914979</v>
       </c>
       <c r="J21">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K21">
-        <v>743.7606768681932</v>
+        <v>447.0576688914981</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N21">
-        <v>0.9703484564608033</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="O21">
-        <v>912.6283812662734</v>
+        <v>520.7135389543884</v>
       </c>
       <c r="P21">
-        <v>168.8677043980802</v>
+        <v>73.65587006289044</v>
       </c>
       <c r="Q21">
-        <v>1.687213173207651</v>
+        <v>1.955796219403232</v>
       </c>
       <c r="R21">
-        <v>458.8448614784166</v>
+        <v>303.0017966856411</v>
       </c>
       <c r="S21">
-        <v>5.404398576502759</v>
+        <v>7.069545692825046</v>
       </c>
       <c r="T21">
-        <v>6.101564113730778</v>
+        <v>7.069545692825046</v>
       </c>
       <c r="U21">
-        <v>1.808545150398318</v>
+        <v>1.955796219403232</v>
       </c>
       <c r="V21">
-        <v>465.8561307028808</v>
+        <v>303.0017966856411</v>
       </c>
       <c r="W21">
-        <v>275.5109384653354</v>
+        <v>550.1602943491309</v>
       </c>
       <c r="X21">
         <v>997.2179632406288</v>
       </c>
       <c r="Y21">
-        <v>253.4572863724356</v>
+        <v>550.1602943491307</v>
       </c>
       <c r="Z21">
-        <v>1.087011316220334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>1021.261404190063</v>
+        <v>646.509785359811</v>
       </c>
       <c r="H22">
-        <v>39.61900013738152</v>
+        <v>20.7683173335544</v>
       </c>
       <c r="I22">
-        <v>981.6424040526812</v>
+        <v>625.7414680262566</v>
       </c>
       <c r="J22">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K22">
-        <v>1000.729360832908</v>
+        <v>644.5780598555782</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N22">
-        <v>0.9809269543522325</v>
+        <v>0.970776864739172</v>
       </c>
       <c r="O22">
-        <v>1036.769731819194</v>
+        <v>669.3754609036663</v>
       </c>
       <c r="P22">
-        <v>36.04037098628621</v>
+        <v>24.79740104808792</v>
       </c>
       <c r="Q22">
-        <v>3.359225404900346</v>
+        <v>3.295606278528671</v>
       </c>
       <c r="R22">
-        <v>879.6616310137418</v>
+        <v>562.8555892703064</v>
       </c>
       <c r="S22">
-        <v>28.7668995475573</v>
+        <v>26.99377485590493</v>
       </c>
       <c r="T22">
-        <v>25.77706152726648</v>
+        <v>31.12961801268682</v>
       </c>
       <c r="U22">
-        <v>3.249485008363885</v>
+        <v>3.438159713664669</v>
       </c>
       <c r="V22">
-        <v>852.9010570598932</v>
+        <v>554.3366760494262</v>
       </c>
       <c r="W22">
-        <v>55.12732776651353</v>
+        <v>411.0282637929381</v>
       </c>
       <c r="X22">
         <v>1036.769731819195</v>
       </c>
       <c r="Y22">
-        <v>36.04037098628635</v>
+        <v>392.1916719636165</v>
       </c>
       <c r="Z22">
-        <v>1.529599342567531</v>
+        <v>1.048029045938204</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>1022.390911310949</v>
+        <v>644.405082190731</v>
       </c>
       <c r="H23">
-        <v>38.27246824741734</v>
+        <v>8.083726524303541</v>
       </c>
       <c r="I23">
-        <v>984.1184430635317</v>
+        <v>636.3213556664275</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K23">
-        <v>984.1184430635315</v>
+        <v>636.3213556664277</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="O23">
-        <v>1022.390911310949</v>
+        <v>644.405082190731</v>
       </c>
       <c r="P23">
-        <v>38.27246824741734</v>
+        <v>8.083726524303541</v>
       </c>
       <c r="Q23">
-        <v>3.285168401042013</v>
+        <v>4.37847456825939</v>
       </c>
       <c r="R23">
-        <v>858.3869397472324</v>
+        <v>600.9269646630006</v>
       </c>
       <c r="S23">
-        <v>26.71348251441663</v>
+        <v>79.71633877684279</v>
       </c>
       <c r="T23">
-        <v>26.71348251441663</v>
+        <v>79.71633877684279</v>
       </c>
       <c r="U23">
-        <v>3.285168401042013</v>
+        <v>4.37847456825939</v>
       </c>
       <c r="V23">
-        <v>858.3869397472324</v>
+        <v>600.9269646630006</v>
       </c>
       <c r="W23">
-        <v>42.78941570683105</v>
+        <v>390.5865031039352</v>
       </c>
       <c r="X23">
         <v>1026.907858770363</v>
       </c>
       <c r="Y23">
-        <v>42.78941570683128</v>
+        <v>390.586503103935</v>
       </c>
       <c r="Z23">
-        <v>0.9999999999999947</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>984.9280467805963</v>
+        <v>632.8192428299061</v>
       </c>
       <c r="H24">
-        <v>41.98061095380996</v>
+        <v>26.31635063333631</v>
       </c>
       <c r="I24">
-        <v>942.9474358267864</v>
+        <v>606.5028921965697</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K24">
-        <v>965.2294065297751</v>
+        <v>608.129293294249</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N24">
-        <v>0.9769153627601364</v>
+        <v>0.9973255669220126</v>
       </c>
       <c r="O24">
-        <v>1023.306255524124</v>
+        <v>623.4004120167189</v>
       </c>
       <c r="P24">
-        <v>58.07684899434899</v>
+        <v>15.27111872246999</v>
       </c>
       <c r="Q24">
-        <v>2.869026974970488</v>
+        <v>3.709225648936593</v>
       </c>
       <c r="R24">
-        <v>798.6053601437003</v>
+        <v>551.4852680409074</v>
       </c>
       <c r="S24">
-        <v>17.61986528614344</v>
+        <v>40.82218358367189</v>
       </c>
       <c r="T24">
-        <v>23.46149863955729</v>
+        <v>24.04661845583865</v>
       </c>
       <c r="U24">
-        <v>3.15536072181409</v>
+        <v>3.179994381919162</v>
       </c>
       <c r="V24">
-        <v>810.4834649453762</v>
+        <v>522.8170450299455</v>
       </c>
       <c r="W24">
-        <v>102.9291612633888</v>
+        <v>439.3737048936055</v>
       </c>
       <c r="X24">
         <v>1045.876597090175</v>
       </c>
       <c r="Y24">
-        <v>80.64719056040008</v>
+        <v>437.7473037959262</v>
       </c>
       <c r="Z24">
-        <v>1.276289484458864</v>
+        <v>1.003715388041402</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>997.7562766898913</v>
+        <v>701.7509092685725</v>
       </c>
       <c r="H25">
-        <v>42.09016870083371</v>
+        <v>23.79939212823739</v>
       </c>
       <c r="I25">
-        <v>955.6661079890575</v>
+        <v>677.9515171403351</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K25">
-        <v>959.3909234840939</v>
+        <v>677.9515171403351</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N25">
-        <v>0.9961175206020195</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>997.8073086360793</v>
+        <v>701.7509092685725</v>
       </c>
       <c r="P25">
-        <v>38.41638515198547</v>
+        <v>23.79939212823739</v>
       </c>
       <c r="Q25">
-        <v>3.257076114899807</v>
+        <v>3.383918471436072</v>
       </c>
       <c r="R25">
-        <v>834.2658329847703</v>
+        <v>597.4163145086424</v>
       </c>
       <c r="S25">
-        <v>25.97348253065683</v>
+        <v>29.48608542131471</v>
       </c>
       <c r="T25">
-        <v>23.70520973155729</v>
+        <v>29.48608542131471</v>
       </c>
       <c r="U25">
-        <v>3.165694843881164</v>
+        <v>3.383918471436072</v>
       </c>
       <c r="V25">
-        <v>822.4214779547399</v>
+        <v>597.4163145086424</v>
       </c>
       <c r="W25">
-        <v>69.43507755006294</v>
+        <v>347.1496683987854</v>
       </c>
       <c r="X25">
         <v>1025.10118553912</v>
       </c>
       <c r="Y25">
-        <v>65.71026205502653</v>
+        <v>347.1496683987854</v>
       </c>
       <c r="Z25">
-        <v>1.05668544575149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>989.2308555281645</v>
+        <v>639.3482704753654</v>
       </c>
       <c r="H26">
-        <v>35.61556216316573</v>
+        <v>19.39470085808246</v>
       </c>
       <c r="I26">
-        <v>953.6152933649988</v>
+        <v>619.9535696172829</v>
       </c>
       <c r="J26">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K26">
-        <v>958.7965423827778</v>
+        <v>638.7183667834788</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N26">
-        <v>0.994596091257377</v>
+        <v>0.9706211717995624</v>
       </c>
       <c r="O26">
-        <v>998.7501822846477</v>
+        <v>680.5706999701894</v>
       </c>
       <c r="P26">
-        <v>39.95363990186998</v>
+        <v>41.8523331867104</v>
       </c>
       <c r="Q26">
-        <v>3.218784900095323</v>
+        <v>2.788784164289214</v>
       </c>
       <c r="R26">
-        <v>830.1943695627926</v>
+        <v>522.0012427538251</v>
       </c>
       <c r="S26">
-        <v>24.99772698401636</v>
+        <v>16.26123678539133</v>
       </c>
       <c r="T26">
-        <v>27.77524192924983</v>
+        <v>32.96510088779876</v>
       </c>
       <c r="U26">
-        <v>3.324145045811785</v>
+        <v>3.495449453012537</v>
       </c>
       <c r="V26">
-        <v>835.2239988465099</v>
+        <v>552.1603731115569</v>
       </c>
       <c r="W26">
-        <v>50.11932609068572</v>
+        <v>383.7810498384016</v>
       </c>
       <c r="X26">
         <v>1003.734619455685</v>
       </c>
       <c r="Y26">
-        <v>44.93807707290671</v>
+        <v>365.0162526722057</v>
       </c>
       <c r="Z26">
-        <v>1.115297523954419</v>
+        <v>1.051408114101284</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>1062.875711038932</v>
+        <v>690.9750963363987</v>
       </c>
       <c r="H27">
-        <v>68.08230863365505</v>
+        <v>27.69964991882632</v>
       </c>
       <c r="I27">
-        <v>994.7934024052764</v>
+        <v>663.2754464175723</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K27">
-        <v>1024.121202969384</v>
+        <v>663.2754464175723</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N27">
-        <v>0.9713629593068933</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>1062.715931400235</v>
+        <v>690.9750963363987</v>
       </c>
       <c r="P27">
-        <v>38.59472843085153</v>
+        <v>27.69964991882632</v>
       </c>
       <c r="Q27">
-        <v>3.315467411707961</v>
+        <v>3.216684008280148</v>
       </c>
       <c r="R27">
-        <v>896.1616385931768</v>
+        <v>574.1744254887252</v>
       </c>
       <c r="S27">
-        <v>27.5352612806761</v>
+        <v>24.94526459219874</v>
       </c>
       <c r="T27">
-        <v>15.6116285180365</v>
+        <v>24.94526459219874</v>
       </c>
       <c r="U27">
-        <v>2.748016054392465</v>
+        <v>3.216684008280148</v>
       </c>
       <c r="V27">
-        <v>807.7021252598897</v>
+        <v>574.1744254887252</v>
       </c>
       <c r="W27">
-        <v>85.16703392995566</v>
+        <v>416.6849899176598</v>
       </c>
       <c r="X27">
         <v>1079.960436335232</v>
       </c>
       <c r="Y27">
-        <v>55.83923336584803</v>
+        <v>416.6849899176598</v>
       </c>
       <c r="Z27">
-        <v>1.525218538942995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>1044.73932628548</v>
+        <v>730.0040201670332</v>
       </c>
       <c r="H28">
-        <v>51.49831331982799</v>
+        <v>34.19222152594156</v>
       </c>
       <c r="I28">
-        <v>993.2410129656519</v>
+        <v>695.8117986410916</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K28">
-        <v>1008.36401857119</v>
+        <v>695.8117986410916</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N28">
-        <v>0.9850024343123952</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>1050.433754446795</v>
+        <v>730.0040201670332</v>
       </c>
       <c r="P28">
-        <v>42.06973587560447</v>
+        <v>34.19222152594156</v>
       </c>
       <c r="Q28">
-        <v>3.217629837952286</v>
+        <v>3.061051863767357</v>
       </c>
       <c r="R28">
-        <v>872.9991811430734</v>
+        <v>591.1476352127619</v>
       </c>
       <c r="S28">
-        <v>24.96886972508718</v>
+        <v>21.3500026493798</v>
       </c>
       <c r="T28">
-        <v>20.28686492695736</v>
+        <v>21.3500026493798</v>
       </c>
       <c r="U28">
-        <v>3.009973628688749</v>
+        <v>3.061051863767357</v>
       </c>
       <c r="V28">
-        <v>838.232447951019</v>
+        <v>591.1476352127619</v>
       </c>
       <c r="W28">
-        <v>65.17173818445053</v>
+        <v>362.6009525090108</v>
       </c>
       <c r="X28">
         <v>1058.412751150102</v>
       </c>
       <c r="Y28">
-        <v>50.048732578912</v>
+        <v>362.6009525090108</v>
       </c>
       <c r="Z28">
-        <v>1.302165605926065</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>971.4034518179475</v>
+        <v>594.9540728795055</v>
       </c>
       <c r="H29">
-        <v>56.9603710571399</v>
+        <v>19.68391541509144</v>
       </c>
       <c r="I29">
-        <v>914.4430807608076</v>
+        <v>575.2701574644141</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K29">
-        <v>946.7134328577694</v>
+        <v>578.3340644272032</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N29">
-        <v>0.9659132838122411</v>
+        <v>0.9947021848595003</v>
       </c>
       <c r="O29">
-        <v>991.5843171570513</v>
+        <v>606.8227363160931</v>
       </c>
       <c r="P29">
-        <v>44.87088429928183</v>
+        <v>28.48867188889009</v>
       </c>
       <c r="Q29">
-        <v>3.095514856518031</v>
+        <v>3.058730185304895</v>
       </c>
       <c r="R29">
-        <v>807.814943884241</v>
+        <v>491.194903781408</v>
       </c>
       <c r="S29">
-        <v>22.09861322418649</v>
+        <v>21.30049230384586</v>
       </c>
       <c r="T29">
-        <v>17.05402253864327</v>
+        <v>30.22539267890577</v>
       </c>
       <c r="U29">
-        <v>2.836386101923492</v>
+        <v>3.408682388274388</v>
       </c>
       <c r="V29">
-        <v>752.8814759339308</v>
+        <v>508.1739416567091</v>
       </c>
       <c r="W29">
-        <v>77.1412363962437</v>
+        <v>416.3141596926372</v>
       </c>
       <c r="X29">
         <v>991.5843171570513</v>
       </c>
       <c r="Y29">
-        <v>44.8708842992819</v>
+        <v>413.2502527298481</v>
       </c>
       <c r="Z29">
-        <v>1.719182440928142</v>
+        <v>1.007414168394452</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>1036.10546198802</v>
+        <v>653.0845641438759</v>
       </c>
       <c r="H30">
-        <v>20.80324367018</v>
+        <v>13.13447425884276</v>
       </c>
       <c r="I30">
-        <v>1015.30221831784</v>
+        <v>639.9500898850332</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K30">
-        <v>1017.159542863194</v>
+        <v>649.8648544697025</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N30">
-        <v>0.9981740086317968</v>
+        <v>0.9847433439176213</v>
       </c>
       <c r="O30">
-        <v>1055.333187833389</v>
+        <v>664.6292723477798</v>
       </c>
       <c r="P30">
-        <v>38.17364497019444</v>
+        <v>14.764417878077</v>
       </c>
       <c r="Q30">
-        <v>3.319466458641325</v>
+        <v>3.807009311392282</v>
       </c>
       <c r="R30">
-        <v>890.4434087805516</v>
+        <v>593.6565781305769</v>
       </c>
       <c r="S30">
-        <v>27.64559655378419</v>
+        <v>45.01560967971903</v>
       </c>
       <c r="T30">
-        <v>49.80499572156648</v>
+        <v>49.72293152154055</v>
       </c>
       <c r="U30">
-        <v>3.908115294693431</v>
+        <v>3.90646622551463</v>
       </c>
       <c r="V30">
-        <v>934.0007435511751</v>
+        <v>588.6407098029727</v>
       </c>
       <c r="W30">
-        <v>50.01039346772961</v>
+        <v>425.3625219005363</v>
       </c>
       <c r="X30">
         <v>1065.31261178557</v>
       </c>
       <c r="Y30">
-        <v>48.15306892237595</v>
+        <v>415.447757315867</v>
       </c>
       <c r="Z30">
-        <v>1.0385712600862</v>
+        <v>1.023865249986489</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>1165.924820934335</v>
+        <v>803.436774448155</v>
       </c>
       <c r="H31">
-        <v>57.04111800015226</v>
+        <v>23.82225208614589</v>
       </c>
       <c r="I31">
-        <v>1108.883702934182</v>
+        <v>779.6145223620091</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K31">
-        <v>1138.749949157878</v>
+        <v>779.614522362009</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N31">
-        <v>0.9737727793131565</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>1178.020423444158</v>
+        <v>803.4367744481551</v>
       </c>
       <c r="P31">
-        <v>39.27047428628014</v>
+        <v>23.82225208614589</v>
       </c>
       <c r="Q31">
-        <v>3.40111775536048</v>
+        <v>3.518278388924488</v>
       </c>
       <c r="R31">
-        <v>1005.186441801383</v>
+        <v>695.8012076718109</v>
       </c>
       <c r="S31">
-        <v>29.99761130605242</v>
+        <v>33.72631485649516</v>
       </c>
       <c r="T31">
-        <v>20.44007659406715</v>
+        <v>33.72631485649516</v>
       </c>
       <c r="U31">
-        <v>3.017497512592042</v>
+        <v>3.518278388924488</v>
       </c>
       <c r="V31">
-        <v>936.7622712532537</v>
+        <v>695.8012076718107</v>
       </c>
       <c r="W31">
-        <v>71.98827648078554</v>
+        <v>401.2574570529588</v>
       </c>
       <c r="X31">
         <v>1180.871979414968</v>
       </c>
       <c r="Y31">
-        <v>42.12203025709005</v>
+        <v>401.2574570529589</v>
       </c>
       <c r="Z31">
-        <v>1.709040994496422</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/results/Distorted_greedy/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/Distorted_greedy/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>472.2826626326101</v>
+        <v>746.1224678182858</v>
       </c>
       <c r="H2">
-        <v>71.59391356899059</v>
+        <v>129.6250750476243</v>
       </c>
       <c r="I2">
-        <v>400.6887490636195</v>
+        <v>616.4973927706616</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
-        <v>400.6887490636194</v>
+        <v>616.4973927706617</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O2">
-        <v>472.2826626326101</v>
+        <v>746.1224678182858</v>
       </c>
       <c r="P2">
-        <v>71.59391356899059</v>
+        <v>129.6250750476243</v>
       </c>
       <c r="Q2">
-        <v>1.886567603515629</v>
+        <v>1.750243507197239</v>
       </c>
       <c r="R2">
-        <v>265.6219911154639</v>
+        <v>389.6219467986023</v>
       </c>
       <c r="S2">
-        <v>6.596687331214278</v>
+        <v>5.756004133800195</v>
       </c>
       <c r="T2">
-        <v>6.596687331214278</v>
+        <v>5.756004133800195</v>
       </c>
       <c r="U2">
-        <v>1.886567603515629</v>
+        <v>1.750243507197239</v>
       </c>
       <c r="V2">
-        <v>265.6219911154639</v>
+        <v>389.6219467986023</v>
       </c>
       <c r="W2">
-        <v>543.6050877539465</v>
+        <v>327.7964440469044</v>
       </c>
       <c r="X2">
         <v>944.293836817566</v>
       </c>
       <c r="Y2">
-        <v>543.6050877539466</v>
+        <v>327.7964440469043</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>551.4561814957559</v>
+        <v>824.118325298978</v>
       </c>
       <c r="H3">
-        <v>42.80290432225114</v>
+        <v>87.69708694079912</v>
       </c>
       <c r="I3">
-        <v>508.6532771735048</v>
+        <v>736.4212383581789</v>
       </c>
       <c r="J3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K3">
-        <v>508.6532771735046</v>
+        <v>771.2411531845593</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.9548521047112123</v>
       </c>
       <c r="O3">
-        <v>551.4561814957559</v>
+        <v>874.1214368550305</v>
       </c>
       <c r="P3">
-        <v>42.80290432225114</v>
+        <v>102.8802836704712</v>
       </c>
       <c r="Q3">
-        <v>2.555956423938099</v>
+        <v>2.139653291993667</v>
       </c>
       <c r="R3">
-        <v>399.2509189078392</v>
+        <v>551.1130155477933</v>
       </c>
       <c r="S3">
-        <v>12.88361596549608</v>
+        <v>8.496491316595405</v>
       </c>
       <c r="T3">
-        <v>12.88361596549608</v>
+        <v>9.39732839535831</v>
       </c>
       <c r="U3">
-        <v>2.555956423938099</v>
+        <v>2.240425435619961</v>
       </c>
       <c r="V3">
-        <v>399.2509189078392</v>
+        <v>539.9424541462374</v>
       </c>
       <c r="W3">
-        <v>446.5871534731086</v>
+        <v>218.8191922884345</v>
       </c>
       <c r="X3">
         <v>955.2404306466134</v>
       </c>
       <c r="Y3">
-        <v>446.5871534731088</v>
+        <v>183.9992774620541</v>
       </c>
       <c r="Z3">
-        <v>0.9999999999999997</v>
+        <v>1.189239410646932</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>614.5437998655553</v>
+        <v>917.9893541031672</v>
       </c>
       <c r="H4">
-        <v>62.59745102064366</v>
+        <v>87.64698290134646</v>
       </c>
       <c r="I4">
-        <v>551.9463488449117</v>
+        <v>830.3423712018207</v>
       </c>
       <c r="J4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
-        <v>551.9463488449119</v>
+        <v>863.4241931265074</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N4">
-        <v>0.9999999999999996</v>
+        <v>0.9616853196979627</v>
       </c>
       <c r="O4">
-        <v>614.5437998655553</v>
+        <v>975.083131777721</v>
       </c>
       <c r="P4">
-        <v>62.59745102064366</v>
+        <v>111.6589386512137</v>
       </c>
       <c r="Q4">
-        <v>2.284155644951589</v>
+        <v>2.167073696071329</v>
       </c>
       <c r="R4">
-        <v>408.9640277365278</v>
+        <v>621.4510442442198</v>
       </c>
       <c r="S4">
-        <v>9.817393357804432</v>
+        <v>8.732692102900639</v>
       </c>
       <c r="T4">
-        <v>9.817393357804432</v>
+        <v>10.47371311270847</v>
       </c>
       <c r="U4">
-        <v>2.284155644951589</v>
+        <v>2.348868605059073</v>
       </c>
       <c r="V4">
-        <v>408.9640277365278</v>
+        <v>624.4711247366986</v>
       </c>
       <c r="W4">
-        <v>573.7622057738167</v>
+        <v>295.3661834169077</v>
       </c>
       <c r="X4">
         <v>1125.708554618728</v>
       </c>
       <c r="Y4">
-        <v>573.7622057738165</v>
+        <v>262.284361492221</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>1.126129601233079</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>543.3256927652867</v>
+        <v>903.1902108208071</v>
       </c>
       <c r="H5">
-        <v>71.96504655983526</v>
+        <v>200.0757758534903</v>
       </c>
       <c r="I5">
-        <v>471.3606462054514</v>
+        <v>703.1144349673168</v>
       </c>
       <c r="J5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K5">
-        <v>476.1118330288332</v>
+        <v>720.2451290567108</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N5">
-        <v>0.9900208596094815</v>
+        <v>0.9762154669316131</v>
       </c>
       <c r="O5">
-        <v>545.1922215644006</v>
+        <v>864.4555562860764</v>
       </c>
       <c r="P5">
-        <v>69.08038853556735</v>
+        <v>144.2104272293659</v>
       </c>
       <c r="Q5">
-        <v>2.06586755490551</v>
+        <v>1.790826360949313</v>
       </c>
       <c r="R5">
-        <v>333.4008996729381</v>
+        <v>461.9892944505995</v>
       </c>
       <c r="S5">
-        <v>7.892141794826443</v>
+        <v>5.994403961588468</v>
       </c>
       <c r="T5">
-        <v>7.549855363652675</v>
+        <v>4.514240701893804</v>
       </c>
       <c r="U5">
-        <v>2.021528405945337</v>
+        <v>1.507237000388367</v>
       </c>
       <c r="V5">
-        <v>325.8812603495657</v>
+        <v>401.5528227195268</v>
       </c>
       <c r="W5">
-        <v>573.8322474834951</v>
+        <v>342.0784587216297</v>
       </c>
       <c r="X5">
         <v>1045.192893688946</v>
       </c>
       <c r="Y5">
-        <v>569.0810606601133</v>
+        <v>324.9477646322357</v>
       </c>
       <c r="Z5">
-        <v>1.008348875321682</v>
+        <v>1.05271830107458</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>619.4099554160166</v>
+        <v>956.0829424484776</v>
       </c>
       <c r="H6">
-        <v>53.10131518302816</v>
+        <v>116.0337170618416</v>
       </c>
       <c r="I6">
-        <v>566.3086402329884</v>
+        <v>840.0492253866361</v>
       </c>
       <c r="J6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K6">
-        <v>566.3086402329884</v>
+        <v>840.0492253866362</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O6">
-        <v>619.4099554160166</v>
+        <v>956.0829424484776</v>
       </c>
       <c r="P6">
-        <v>53.10131518302816</v>
+        <v>116.0337170618416</v>
       </c>
       <c r="Q6">
-        <v>2.456565644103617</v>
+        <v>2.108963855973431</v>
       </c>
       <c r="R6">
-        <v>435.8617736976437</v>
+        <v>595.3383100289645</v>
       </c>
       <c r="S6">
-        <v>11.66468200045614</v>
+        <v>8.239699344794078</v>
       </c>
       <c r="T6">
-        <v>11.66468200045614</v>
+        <v>8.239699344794078</v>
       </c>
       <c r="U6">
-        <v>2.456565644103617</v>
+        <v>2.108963855973431</v>
       </c>
       <c r="V6">
-        <v>435.8617736976437</v>
+        <v>595.3383100289645</v>
       </c>
       <c r="W6">
-        <v>461.7200520148574</v>
+        <v>187.9794668612097</v>
       </c>
       <c r="X6">
         <v>1028.028692247846</v>
       </c>
       <c r="Y6">
-        <v>461.7200520148574</v>
+        <v>187.9794668612096</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>588.9215173437891</v>
+        <v>903.3054685158819</v>
       </c>
       <c r="H7">
-        <v>52.3555157166066</v>
+        <v>134.4057905570909</v>
       </c>
       <c r="I7">
-        <v>536.5660016271825</v>
+        <v>768.899677958791</v>
       </c>
       <c r="J7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
-        <v>536.5660016271825</v>
+        <v>856.767311766205</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.8974428265402925</v>
       </c>
       <c r="O7">
-        <v>588.9215173437891</v>
+        <v>953.794721103137</v>
       </c>
       <c r="P7">
-        <v>52.3555157166066</v>
+        <v>97.02740933693227</v>
       </c>
       <c r="Q7">
-        <v>2.420235633409122</v>
+        <v>2.285454962181948</v>
       </c>
       <c r="R7">
-        <v>409.8533168843398</v>
+        <v>635.0155376294539</v>
       </c>
       <c r="S7">
-        <v>11.24850952727775</v>
+        <v>9.830157556727499</v>
       </c>
       <c r="T7">
-        <v>11.24850952727775</v>
+        <v>6.720733271772168</v>
       </c>
       <c r="U7">
-        <v>2.420235633409122</v>
+        <v>1.905197266405381</v>
       </c>
       <c r="V7">
-        <v>409.8533168843398</v>
+        <v>512.8301332003674</v>
       </c>
       <c r="W7">
-        <v>513.99231383193</v>
+        <v>281.6586375003214</v>
       </c>
       <c r="X7">
         <v>1050.558315459112</v>
       </c>
       <c r="Y7">
-        <v>513.99231383193</v>
+        <v>193.7910036929075</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>1.453414411056223</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>658.9055008379647</v>
+        <v>939.3028220279808</v>
       </c>
       <c r="H8">
-        <v>136.6283237824729</v>
+        <v>110.0789550569435</v>
       </c>
       <c r="I8">
-        <v>522.2771770554918</v>
+        <v>829.2238669710373</v>
       </c>
       <c r="J8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K8">
-        <v>522.2771770554918</v>
+        <v>829.2238669710372</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>658.9055008379647</v>
+        <v>939.3028220279808</v>
       </c>
       <c r="P8">
-        <v>136.6283237824729</v>
+        <v>110.0789550569435</v>
       </c>
       <c r="Q8">
-        <v>1.573315852424747</v>
+        <v>2.143940039829358</v>
       </c>
       <c r="R8">
-        <v>307.317669358306</v>
+        <v>593.2211876818798</v>
       </c>
       <c r="S8">
-        <v>4.822612783327515</v>
+        <v>8.532991810669737</v>
       </c>
       <c r="T8">
-        <v>4.822612783327515</v>
+        <v>8.532991810669737</v>
       </c>
       <c r="U8">
-        <v>1.573315852424747</v>
+        <v>2.143940039829358</v>
       </c>
       <c r="V8">
-        <v>307.317669358306</v>
+        <v>593.2211876818798</v>
       </c>
       <c r="W8">
-        <v>580.1015387242569</v>
+        <v>273.1548488087114</v>
       </c>
       <c r="X8">
         <v>1102.378715779749</v>
       </c>
       <c r="Y8">
-        <v>580.1015387242569</v>
+        <v>273.1548488087116</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>434.4688585088102</v>
+        <v>849.1782543090936</v>
       </c>
       <c r="H9">
-        <v>39.57014490547107</v>
+        <v>199.0208960965904</v>
       </c>
       <c r="I9">
-        <v>394.8987136033391</v>
+        <v>650.1573582125033</v>
       </c>
       <c r="J9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K9">
-        <v>440.1285578452625</v>
+        <v>704.7332243495372</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N9">
-        <v>0.8972349250333693</v>
+        <v>0.9225581195105326</v>
       </c>
       <c r="O9">
-        <v>563.1137811743922</v>
+        <v>868.9779672942063</v>
       </c>
       <c r="P9">
-        <v>122.9852233291296</v>
+        <v>164.2447429446693</v>
       </c>
       <c r="Q9">
-        <v>1.521417493101302</v>
+        <v>1.665960120424794</v>
       </c>
       <c r="R9">
-        <v>253.0166876793543</v>
+        <v>431.1080326142963</v>
       </c>
       <c r="S9">
-        <v>4.578710888440661</v>
+        <v>5.29075056963587</v>
       </c>
       <c r="T9">
-        <v>10.97971360849728</v>
+        <v>4.266779373242113</v>
       </c>
       <c r="U9">
-        <v>2.396049352726398</v>
+        <v>1.450859297512196</v>
       </c>
       <c r="V9">
-        <v>300.0866935152954</v>
+        <v>361.4060407115564</v>
       </c>
       <c r="W9">
-        <v>667.3984215098621</v>
+        <v>412.1397769006979</v>
       </c>
       <c r="X9">
         <v>1062.297135113201</v>
       </c>
       <c r="Y9">
-        <v>622.1685772679386</v>
+        <v>357.563910763664</v>
       </c>
       <c r="Z9">
-        <v>1.072697088690233</v>
+        <v>1.152632479101356</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>460.4440461525583</v>
+        <v>799.3622001080968</v>
       </c>
       <c r="H10">
-        <v>67.8078102187566</v>
+        <v>167.5306727104545</v>
       </c>
       <c r="I10">
-        <v>392.6362359338017</v>
+        <v>631.8315273976423</v>
       </c>
       <c r="J10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K10">
-        <v>392.6362359338016</v>
+        <v>631.8315273976423</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <v>460.4440461525583</v>
+        <v>799.3622001080968</v>
       </c>
       <c r="P10">
-        <v>67.8078102187566</v>
+        <v>167.5306727104545</v>
       </c>
       <c r="Q10">
-        <v>1.915513958307733</v>
+        <v>1.562647704670352</v>
       </c>
       <c r="R10">
-        <v>262.7494289774917</v>
+        <v>370.0401062247707</v>
       </c>
       <c r="S10">
-        <v>6.790427897127297</v>
+        <v>4.771437893582898</v>
       </c>
       <c r="T10">
-        <v>6.790427897127297</v>
+        <v>4.771437893582898</v>
       </c>
       <c r="U10">
-        <v>1.915513958307733</v>
+        <v>1.562647704670352</v>
       </c>
       <c r="V10">
-        <v>262.7494289774917</v>
+        <v>370.0401062247707</v>
       </c>
       <c r="W10">
-        <v>574.1621595626887</v>
+        <v>334.9668680988481</v>
       </c>
       <c r="X10">
         <v>966.7983954964903</v>
       </c>
       <c r="Y10">
-        <v>574.1621595626888</v>
+        <v>334.9668680988481</v>
       </c>
       <c r="Z10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>439.7345571645089</v>
+        <v>872.1470592344257</v>
       </c>
       <c r="H11">
-        <v>50.71571091189293</v>
+        <v>202.2537825555894</v>
       </c>
       <c r="I11">
-        <v>389.018846252616</v>
+        <v>669.8932766788363</v>
       </c>
       <c r="J11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>391.3209032251618</v>
+        <v>669.8932766788364</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N11">
-        <v>0.9941172144049222</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O11">
-        <v>515.4063095281165</v>
+        <v>872.1470592344257</v>
       </c>
       <c r="P11">
-        <v>124.0854063029547</v>
+        <v>202.2537825555894</v>
       </c>
       <c r="Q11">
-        <v>1.423985451119811</v>
+        <v>1.461434797460967</v>
       </c>
       <c r="R11">
-        <v>214.6250899534638</v>
+        <v>374.3125609339941</v>
       </c>
       <c r="S11">
-        <v>4.153641631875316</v>
+        <v>4.312142142482385</v>
       </c>
       <c r="T11">
-        <v>8.670578589117053</v>
+        <v>4.312142142482385</v>
       </c>
       <c r="U11">
-        <v>2.159935523181372</v>
+        <v>1.461434797460967</v>
       </c>
       <c r="V11">
-        <v>279.4761806706213</v>
+        <v>374.3125609339941</v>
       </c>
       <c r="W11">
-        <v>629.7640672585858</v>
+        <v>348.8896368323655</v>
       </c>
       <c r="X11">
         <v>1018.782913511202</v>
       </c>
       <c r="Y11">
-        <v>627.4620102860399</v>
+        <v>348.8896368323653</v>
       </c>
       <c r="Z11">
-        <v>1.003668838805869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,64 +1439,64 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>459.1092285496929</v>
+        <v>862.8958201944826</v>
       </c>
       <c r="H12">
-        <v>36.3474988627501</v>
+        <v>114.5512528823436</v>
       </c>
       <c r="I12">
-        <v>422.7617296869428</v>
+        <v>748.3445673121389</v>
       </c>
       <c r="J12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K12">
-        <v>422.7617296869428</v>
+        <v>748.3445673121389</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>459.1092285496929</v>
+        <v>862.8958201944826</v>
       </c>
       <c r="P12">
-        <v>36.3474988627501</v>
+        <v>114.5512528823436</v>
       </c>
       <c r="Q12">
-        <v>2.536162757911322</v>
+        <v>2.019271619330258</v>
       </c>
       <c r="R12">
-        <v>330.5785567280119</v>
+        <v>517.0344734080991</v>
       </c>
       <c r="S12">
-        <v>12.63110923486954</v>
+        <v>7.532836162698011</v>
       </c>
       <c r="T12">
-        <v>12.63110923486954</v>
+        <v>7.532836162698011</v>
       </c>
       <c r="U12">
-        <v>2.536162757911322</v>
+        <v>2.019271619330258</v>
       </c>
       <c r="V12">
-        <v>330.5785567280119</v>
+        <v>517.0344734080991</v>
       </c>
       <c r="W12">
-        <v>557.1600609601526</v>
+        <v>231.5772233349564</v>
       </c>
       <c r="X12">
         <v>979.9217906470953</v>
       </c>
       <c r="Y12">
-        <v>557.1600609601526</v>
+        <v>231.5772233349564</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>602.5605061983042</v>
+        <v>943.490178526396</v>
       </c>
       <c r="H13">
-        <v>43.02414429659054</v>
+        <v>100.1770285752892</v>
       </c>
       <c r="I13">
-        <v>559.5363619017137</v>
+        <v>843.3131499511069</v>
       </c>
       <c r="J13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K13">
-        <v>559.5363619017139</v>
+        <v>843.3131499511071</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N13">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O13">
-        <v>602.5605061983042</v>
+        <v>943.490178526396</v>
       </c>
       <c r="P13">
-        <v>43.02414429659054</v>
+        <v>100.1770285752892</v>
       </c>
       <c r="Q13">
-        <v>2.639426632164311</v>
+        <v>2.242647048505448</v>
       </c>
       <c r="R13">
-        <v>445.9772896192123</v>
+        <v>618.6514324886887</v>
       </c>
       <c r="S13">
-        <v>14.00517119049487</v>
+        <v>9.418228828950594</v>
       </c>
       <c r="T13">
-        <v>14.00517119049487</v>
+        <v>9.418228828950594</v>
       </c>
       <c r="U13">
-        <v>2.639426632164311</v>
+        <v>2.242647048505448</v>
       </c>
       <c r="V13">
-        <v>445.9772896192123</v>
+        <v>618.6514324886887</v>
       </c>
       <c r="W13">
-        <v>514.8536857769559</v>
+        <v>231.0768977275627</v>
       </c>
       <c r="X13">
         <v>1074.39004767867</v>
       </c>
       <c r="Y13">
-        <v>514.8536857769557</v>
+        <v>231.0768977275625</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>650.3515440062891</v>
+        <v>931.4655381629402</v>
       </c>
       <c r="H14">
-        <v>73.95324613879065</v>
+        <v>146.4403997387751</v>
       </c>
       <c r="I14">
-        <v>576.3982978674985</v>
+        <v>785.0251384241651</v>
       </c>
       <c r="J14">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K14">
-        <v>576.3982978674983</v>
+        <v>795.4259820782245</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.9869241841624473</v>
       </c>
       <c r="O14">
-        <v>650.3515440062891</v>
+        <v>957.4347023353964</v>
       </c>
       <c r="P14">
-        <v>73.95324613879065</v>
+        <v>162.0087202571721</v>
       </c>
       <c r="Q14">
-        <v>2.174079969029318</v>
+        <v>1.77660736020334</v>
       </c>
       <c r="R14">
-        <v>415.618026792459</v>
+        <v>507.6000972522086</v>
       </c>
       <c r="S14">
-        <v>8.794090563458859</v>
+        <v>5.909772639494763</v>
       </c>
       <c r="T14">
-        <v>8.794090563458859</v>
+        <v>6.360714255250032</v>
       </c>
       <c r="U14">
-        <v>2.174079969029318</v>
+        <v>1.850140675330973</v>
       </c>
       <c r="V14">
-        <v>415.618026792459</v>
+        <v>514.08979835573</v>
       </c>
       <c r="W14">
-        <v>488.4611040054319</v>
+        <v>279.8342634487653</v>
       </c>
       <c r="X14">
         <v>1064.85940187293</v>
       </c>
       <c r="Y14">
-        <v>488.4611040054322</v>
+        <v>269.433419794706</v>
       </c>
       <c r="Z14">
-        <v>0.9999999999999996</v>
+        <v>1.038602648706253</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>628.9323296970965</v>
+        <v>971.1190864791371</v>
       </c>
       <c r="H15">
-        <v>50.79046218173238</v>
+        <v>116.1171878597252</v>
       </c>
       <c r="I15">
-        <v>578.1418675153641</v>
+        <v>855.0018986194118</v>
       </c>
       <c r="J15">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K15">
-        <v>578.1418675153641</v>
+        <v>855.0018986194123</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="O15">
-        <v>628.9323296970965</v>
+        <v>971.1190864791371</v>
       </c>
       <c r="P15">
-        <v>50.79046218173238</v>
+        <v>116.1171878597252</v>
       </c>
       <c r="Q15">
-        <v>2.516315082336832</v>
+        <v>2.123849182573948</v>
       </c>
       <c r="R15">
-        <v>450.3370614886124</v>
+        <v>608.3865041007488</v>
       </c>
       <c r="S15">
-        <v>12.38288258623688</v>
+        <v>8.363267354117225</v>
       </c>
       <c r="T15">
-        <v>12.38288258623688</v>
+        <v>8.363267354117225</v>
       </c>
       <c r="U15">
-        <v>2.516315082336832</v>
+        <v>2.123849182573948</v>
       </c>
       <c r="V15">
-        <v>450.3370614886124</v>
+        <v>608.3865041007488</v>
       </c>
       <c r="W15">
-        <v>569.4069056886574</v>
+        <v>292.5468745846097</v>
       </c>
       <c r="X15">
         <v>1147.548773204021</v>
       </c>
       <c r="Y15">
-        <v>569.4069056886574</v>
+        <v>292.5468745846092</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>632.4080070080846</v>
+        <v>910.7895433929579</v>
       </c>
       <c r="H16">
-        <v>124.0563559862822</v>
+        <v>192.3389180424984</v>
       </c>
       <c r="I16">
-        <v>508.3516510218024</v>
+        <v>718.4506253504594</v>
       </c>
       <c r="J16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K16">
-        <v>508.3516510218024</v>
+        <v>727.451038638618</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.9876274652037031</v>
       </c>
       <c r="O16">
-        <v>632.4080070080846</v>
+        <v>938.0741452307429</v>
       </c>
       <c r="P16">
-        <v>124.0563559862822</v>
+        <v>210.6231065921253</v>
       </c>
       <c r="Q16">
-        <v>1.628798820439356</v>
+        <v>1.493758680377828</v>
       </c>
       <c r="R16">
-        <v>306.2888047233412</v>
+        <v>412.830944878486</v>
       </c>
       <c r="S16">
-        <v>5.097747729088661</v>
+        <v>4.453804525100549</v>
       </c>
       <c r="T16">
-        <v>5.097747729088661</v>
+        <v>4.735336730924699</v>
       </c>
       <c r="U16">
-        <v>1.628798820439356</v>
+        <v>1.555052839405076</v>
       </c>
       <c r="V16">
-        <v>306.2888047233412</v>
+        <v>419.3534447203721</v>
       </c>
       <c r="W16">
-        <v>539.9053947853201</v>
+        <v>329.8064204566631</v>
       </c>
       <c r="X16">
         <v>1048.257045807122</v>
       </c>
       <c r="Y16">
-        <v>539.9053947853201</v>
+        <v>320.8060071685045</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>1.028055625789548</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>589.9292545390998</v>
+        <v>955.75553421697</v>
       </c>
       <c r="H17">
-        <v>60.43691321956091</v>
+        <v>116.9295785285421</v>
       </c>
       <c r="I17">
-        <v>529.4923413195389</v>
+        <v>838.8259556884279</v>
       </c>
       <c r="J17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K17">
-        <v>531.2304749017627</v>
+        <v>838.8259556884279</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N17">
-        <v>0.9967280988867493</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>633.5311703956719</v>
+        <v>955.7555342169704</v>
       </c>
       <c r="P17">
-        <v>102.300695493909</v>
+        <v>116.9295785285421</v>
       </c>
       <c r="Q17">
-        <v>1.823392730510275</v>
+        <v>2.100930302334827</v>
       </c>
       <c r="R17">
-        <v>344.696130412024</v>
+        <v>593.1650609185746</v>
       </c>
       <c r="S17">
-        <v>6.192833463516311</v>
+        <v>8.17377045435663</v>
       </c>
       <c r="T17">
-        <v>9.761075195815334</v>
+        <v>8.173770454356626</v>
       </c>
       <c r="U17">
-        <v>2.278402557863117</v>
+        <v>2.100930302334827</v>
       </c>
       <c r="V17">
-        <v>391.7927236507401</v>
+        <v>593.1650609185742</v>
       </c>
       <c r="W17">
-        <v>587.3987187749723</v>
+        <v>278.0651044060833</v>
       </c>
       <c r="X17">
         <v>1116.891060094511</v>
       </c>
       <c r="Y17">
-        <v>585.6605851927485</v>
+        <v>278.0651044060833</v>
       </c>
       <c r="Z17">
-        <v>1.002967817241196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>587.2049647591274</v>
+        <v>871.0917501615635</v>
       </c>
       <c r="H18">
-        <v>51.4710617294152</v>
+        <v>85.98400489538969</v>
       </c>
       <c r="I18">
-        <v>535.7339030297122</v>
+        <v>785.1077452661738</v>
       </c>
       <c r="J18">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K18">
-        <v>535.7339030297123</v>
+        <v>785.1077452661741</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N18">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="O18">
-        <v>587.2049647591274</v>
+        <v>871.0917501615638</v>
       </c>
       <c r="P18">
-        <v>51.4710617294152</v>
+        <v>85.98400489538969</v>
       </c>
       <c r="Q18">
-        <v>2.434354190662392</v>
+        <v>2.315586020814597</v>
       </c>
       <c r="R18">
-        <v>410.4351082108677</v>
+        <v>586.0043855167559</v>
       </c>
       <c r="S18">
-        <v>11.40844865112906</v>
+        <v>10.13085807321206</v>
       </c>
       <c r="T18">
-        <v>11.40844865112906</v>
+        <v>10.13085807321206</v>
       </c>
       <c r="U18">
-        <v>2.434354190662392</v>
+        <v>2.315586020814597</v>
       </c>
       <c r="V18">
-        <v>410.4351082108677</v>
+        <v>586.0043855167555</v>
       </c>
       <c r="W18">
-        <v>577.2872336414481</v>
+        <v>327.9133914049866</v>
       </c>
       <c r="X18">
         <v>1113.02113667116</v>
       </c>
       <c r="Y18">
-        <v>577.287233641448</v>
+        <v>327.9133914049862</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>569.5295319469429</v>
+        <v>810.6007225056806</v>
       </c>
       <c r="H19">
-        <v>92.01709705104507</v>
+        <v>107.6590661579944</v>
       </c>
       <c r="I19">
-        <v>477.5124348958979</v>
+        <v>702.9416563476861</v>
       </c>
       <c r="J19">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K19">
-        <v>477.5124348958979</v>
+        <v>736.5488908300896</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N19">
-        <v>0.9999999999999999</v>
+        <v>0.9543720248569947</v>
       </c>
       <c r="O19">
-        <v>569.5295319469429</v>
+        <v>857.7714374842921</v>
       </c>
       <c r="P19">
-        <v>92.01709705104507</v>
+        <v>121.2225466542023</v>
       </c>
       <c r="Q19">
-        <v>1.8228362401689</v>
+        <v>1.956709589287351</v>
       </c>
       <c r="R19">
-        <v>309.7803356761141</v>
+        <v>499.3515713539787</v>
       </c>
       <c r="S19">
-        <v>6.189388170233247</v>
+        <v>7.07600575271825</v>
       </c>
       <c r="T19">
-        <v>6.189388170233247</v>
+        <v>7.529330797984893</v>
       </c>
       <c r="U19">
-        <v>1.8228362401689</v>
+        <v>2.018806166412952</v>
       </c>
       <c r="V19">
-        <v>309.7803356761141</v>
+        <v>485.5988697176671</v>
       </c>
       <c r="W19">
-        <v>564.3371882585308</v>
+        <v>338.9079668067425</v>
       </c>
       <c r="X19">
         <v>1041.849623154429</v>
       </c>
       <c r="Y19">
-        <v>564.3371882585307</v>
+        <v>305.300732324339</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>1.110079115194196</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,64 +2079,64 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>596.1580166967849</v>
+        <v>921.0519123928294</v>
       </c>
       <c r="H20">
-        <v>60.43633703324576</v>
+        <v>117.5964776662234</v>
       </c>
       <c r="I20">
-        <v>535.7216796635391</v>
+        <v>803.455434726606</v>
       </c>
       <c r="J20">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K20">
-        <v>535.7216796635391</v>
+        <v>803.4554347266061</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O20">
-        <v>596.1580166967849</v>
+        <v>921.0519123928294</v>
       </c>
       <c r="P20">
-        <v>60.43633703324576</v>
+        <v>117.5964776662234</v>
       </c>
       <c r="Q20">
-        <v>2.28891523005202</v>
+        <v>2.058257316716084</v>
       </c>
       <c r="R20">
-        <v>397.388027379586</v>
+        <v>561.411624150062</v>
       </c>
       <c r="S20">
-        <v>9.86423145348536</v>
+        <v>7.832308676855702</v>
       </c>
       <c r="T20">
-        <v>9.86423145348536</v>
+        <v>7.832308676855702</v>
       </c>
       <c r="U20">
-        <v>2.28891523005202</v>
+        <v>2.058257316716084</v>
       </c>
       <c r="V20">
-        <v>397.388027379586</v>
+        <v>561.411624150062</v>
       </c>
       <c r="W20">
-        <v>528.8145390868935</v>
+        <v>261.0807840238267</v>
       </c>
       <c r="X20">
         <v>1064.536218750433</v>
       </c>
       <c r="Y20">
-        <v>528.8145390868935</v>
+        <v>261.0807840238266</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>520.7135389543884</v>
+        <v>801.8323812896726</v>
       </c>
       <c r="H21">
-        <v>73.65587006289044</v>
+        <v>128.1098047725033</v>
       </c>
       <c r="I21">
-        <v>447.0576688914979</v>
+        <v>673.7225765171694</v>
       </c>
       <c r="J21">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K21">
-        <v>447.0576688914981</v>
+        <v>692.8004626602412</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N21">
-        <v>0.9999999999999994</v>
+        <v>0.9724626538645545</v>
       </c>
       <c r="O21">
-        <v>520.7135389543884</v>
+        <v>821.2667208296891</v>
       </c>
       <c r="P21">
-        <v>73.65587006289044</v>
+        <v>128.4662581694481</v>
       </c>
       <c r="Q21">
-        <v>1.955796219403232</v>
+        <v>1.855181642294783</v>
       </c>
       <c r="R21">
-        <v>303.0017966856411</v>
+        <v>454.4722188499787</v>
       </c>
       <c r="S21">
-        <v>7.069545692825046</v>
+        <v>6.392859358808688</v>
       </c>
       <c r="T21">
-        <v>7.069545692825046</v>
+        <v>6.25894624313543</v>
       </c>
       <c r="U21">
-        <v>1.955796219403232</v>
+        <v>1.834011839175122</v>
       </c>
       <c r="V21">
-        <v>303.0017966856411</v>
+        <v>438.7676778499849</v>
       </c>
       <c r="W21">
-        <v>550.1602943491309</v>
+        <v>323.4953867234594</v>
       </c>
       <c r="X21">
         <v>997.2179632406288</v>
       </c>
       <c r="Y21">
-        <v>550.1602943491307</v>
+        <v>304.4175005803876</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>1.062670135937319</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>646.509785359811</v>
+        <v>963.8765499138311</v>
       </c>
       <c r="H22">
-        <v>20.7683173335544</v>
+        <v>30.68176580483249</v>
       </c>
       <c r="I22">
-        <v>625.7414680262566</v>
+        <v>933.1947841089986</v>
       </c>
       <c r="J22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K22">
-        <v>644.5780598555782</v>
+        <v>982.7100157803112</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N22">
-        <v>0.970776864739172</v>
+        <v>0.949613588061382</v>
       </c>
       <c r="O22">
-        <v>669.3754609036663</v>
+        <v>1016.867858430217</v>
       </c>
       <c r="P22">
-        <v>24.79740104808792</v>
+        <v>34.15784264990594</v>
       </c>
       <c r="Q22">
-        <v>3.295606278528671</v>
+        <v>3.393490242243627</v>
       </c>
       <c r="R22">
-        <v>562.8555892703064</v>
+        <v>866.7957100517619</v>
       </c>
       <c r="S22">
-        <v>26.99377485590493</v>
+        <v>29.76967453279773</v>
       </c>
       <c r="T22">
-        <v>31.12961801268682</v>
+        <v>31.41528932999082</v>
       </c>
       <c r="U22">
-        <v>3.438159713664669</v>
+        <v>3.447294695743768</v>
       </c>
       <c r="V22">
-        <v>554.3366760494262</v>
+        <v>827.4256955939471</v>
       </c>
       <c r="W22">
-        <v>411.0282637929381</v>
+        <v>103.5749477101961</v>
       </c>
       <c r="X22">
         <v>1036.769731819195</v>
       </c>
       <c r="Y22">
-        <v>392.1916719636165</v>
+        <v>54.05971603888349</v>
       </c>
       <c r="Z22">
-        <v>1.048029045938204</v>
+        <v>1.915935844644426</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>644.405082190731</v>
+        <v>959.9722211758581</v>
       </c>
       <c r="H23">
-        <v>8.083726524303541</v>
+        <v>29.06352558224725</v>
       </c>
       <c r="I23">
-        <v>636.3213556664275</v>
+        <v>930.9086955936108</v>
       </c>
       <c r="J23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K23">
-        <v>636.3213556664277</v>
+        <v>943.5230936858823</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N23">
-        <v>0.9999999999999997</v>
+        <v>0.9866305359384546</v>
       </c>
       <c r="O23">
-        <v>644.405082190731</v>
+        <v>966.6805158760933</v>
       </c>
       <c r="P23">
-        <v>8.083726524303541</v>
+        <v>23.15742219021087</v>
       </c>
       <c r="Q23">
-        <v>4.37847456825939</v>
+        <v>3.73155271185724</v>
       </c>
       <c r="R23">
-        <v>600.9269646630006</v>
+        <v>857.109952112378</v>
       </c>
       <c r="S23">
-        <v>79.71633877684279</v>
+        <v>41.74387407786387</v>
       </c>
       <c r="T23">
-        <v>79.71633877684279</v>
+        <v>33.03013663842056</v>
       </c>
       <c r="U23">
-        <v>4.37847456825939</v>
+        <v>3.497420376191616</v>
       </c>
       <c r="V23">
-        <v>600.9269646630006</v>
+        <v>829.2613290182929</v>
       </c>
       <c r="W23">
-        <v>390.5865031039352</v>
+        <v>95.99916317675195</v>
       </c>
       <c r="X23">
         <v>1026.907858770363</v>
       </c>
       <c r="Y23">
-        <v>390.586503103935</v>
+        <v>83.38476508448048</v>
       </c>
       <c r="Z23">
-        <v>1.000000000000001</v>
+        <v>1.15127941032743</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>632.8192428299061</v>
+        <v>932.2173854474701</v>
       </c>
       <c r="H24">
-        <v>26.31635063333631</v>
+        <v>31.88411289031961</v>
       </c>
       <c r="I24">
-        <v>606.5028921965697</v>
+        <v>900.3332725571504</v>
       </c>
       <c r="J24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K24">
-        <v>608.129293294249</v>
+        <v>927.0714845303048</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N24">
-        <v>0.9973255669220126</v>
+        <v>0.9711584139741919</v>
       </c>
       <c r="O24">
-        <v>623.4004120167189</v>
+        <v>981.9027636502254</v>
       </c>
       <c r="P24">
-        <v>15.27111872246999</v>
+        <v>54.83127911992045</v>
       </c>
       <c r="Q24">
-        <v>3.709225648936593</v>
+        <v>2.885231466788694</v>
       </c>
       <c r="R24">
-        <v>551.4852680409074</v>
+        <v>768.8705526492366</v>
       </c>
       <c r="S24">
-        <v>40.82218358367189</v>
+        <v>17.90771215646318</v>
       </c>
       <c r="T24">
-        <v>24.04661845583865</v>
+        <v>29.23767672803913</v>
       </c>
       <c r="U24">
-        <v>3.179994381919162</v>
+        <v>3.375458176459421</v>
       </c>
       <c r="V24">
-        <v>522.8170450299455</v>
+        <v>792.7097830023658</v>
       </c>
       <c r="W24">
-        <v>439.3737048936055</v>
+        <v>145.5433245330248</v>
       </c>
       <c r="X24">
         <v>1045.876597090175</v>
       </c>
       <c r="Y24">
-        <v>437.7473037959262</v>
+        <v>118.8051125598704</v>
       </c>
       <c r="Z24">
-        <v>1.003715388041402</v>
+        <v>1.225059438916654</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>701.7509092685725</v>
+        <v>948.3100827908328</v>
       </c>
       <c r="H25">
-        <v>23.79939212823739</v>
+        <v>39.41306321605077</v>
       </c>
       <c r="I25">
-        <v>677.9515171403351</v>
+        <v>908.897019574782</v>
       </c>
       <c r="J25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K25">
-        <v>677.9515171403351</v>
+        <v>933.5177083083154</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.9736259007039619</v>
       </c>
       <c r="O25">
-        <v>701.7509092685725</v>
+        <v>986.0528152353997</v>
       </c>
       <c r="P25">
-        <v>23.79939212823739</v>
+        <v>52.53510692708451</v>
       </c>
       <c r="Q25">
-        <v>3.383918471436072</v>
+        <v>2.932228268827399</v>
       </c>
       <c r="R25">
-        <v>597.4163145086424</v>
+        <v>779.4727826708479</v>
       </c>
       <c r="S25">
-        <v>29.48608542131471</v>
+        <v>18.76940721951857</v>
       </c>
       <c r="T25">
-        <v>29.48608542131471</v>
+        <v>24.06080637763365</v>
       </c>
       <c r="U25">
-        <v>3.383918471436072</v>
+        <v>3.180584225264778</v>
       </c>
       <c r="V25">
-        <v>597.4163145086424</v>
+        <v>783.5404524404474</v>
       </c>
       <c r="W25">
-        <v>347.1496683987854</v>
+        <v>116.2041659643385</v>
       </c>
       <c r="X25">
         <v>1025.10118553912</v>
       </c>
       <c r="Y25">
-        <v>347.1496683987854</v>
+        <v>91.5834772308051</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>1.268833303538861</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>639.3482704753654</v>
+        <v>938.4576639809111</v>
       </c>
       <c r="H26">
-        <v>19.39470085808246</v>
+        <v>31.35715142960785</v>
       </c>
       <c r="I26">
-        <v>619.9535696172829</v>
+        <v>907.1005125513033</v>
       </c>
       <c r="J26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K26">
-        <v>638.7183667834788</v>
+        <v>924.4436594118266</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N26">
-        <v>0.9706211717995624</v>
+        <v>0.9812393684742693</v>
       </c>
       <c r="O26">
-        <v>680.5706999701894</v>
+        <v>955.3168129075227</v>
       </c>
       <c r="P26">
-        <v>41.8523331867104</v>
+        <v>30.87315349569634</v>
       </c>
       <c r="Q26">
-        <v>2.788784164289214</v>
+        <v>3.432156039378889</v>
       </c>
       <c r="R26">
-        <v>522.0012427538251</v>
+        <v>818.4821791869008</v>
       </c>
       <c r="S26">
-        <v>16.26123678539133</v>
+        <v>30.94328582406369</v>
       </c>
       <c r="T26">
-        <v>32.96510088779876</v>
+        <v>29.92802666044488</v>
       </c>
       <c r="U26">
-        <v>3.495449453012537</v>
+        <v>3.398795387864911</v>
       </c>
       <c r="V26">
-        <v>552.1603731115569</v>
+        <v>800.5239708957705</v>
       </c>
       <c r="W26">
-        <v>383.7810498384016</v>
+        <v>96.63410690438127</v>
       </c>
       <c r="X26">
         <v>1003.734619455685</v>
       </c>
       <c r="Y26">
-        <v>365.0162526722057</v>
+        <v>79.29096004385792</v>
       </c>
       <c r="Z26">
-        <v>1.051408114101284</v>
+        <v>1.218727921202245</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>690.9750963363987</v>
+        <v>987.9590029988458</v>
       </c>
       <c r="H27">
-        <v>27.69964991882632</v>
+        <v>51.75742304550111</v>
       </c>
       <c r="I27">
-        <v>663.2754464175723</v>
+        <v>936.2015799533447</v>
       </c>
       <c r="J27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K27">
-        <v>663.2754464175723</v>
+        <v>981.4207870781896</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.9539247510138152</v>
       </c>
       <c r="O27">
-        <v>690.9750963363987</v>
+        <v>1036.222599435189</v>
       </c>
       <c r="P27">
-        <v>27.69964991882632</v>
+        <v>54.80181235699949</v>
       </c>
       <c r="Q27">
-        <v>3.216684008280148</v>
+        <v>2.939613998443961</v>
       </c>
       <c r="R27">
-        <v>574.1744254887252</v>
+        <v>820.3246123334549</v>
       </c>
       <c r="S27">
-        <v>24.94526459219874</v>
+        <v>18.90854617516749</v>
       </c>
       <c r="T27">
-        <v>24.94526459219874</v>
+        <v>19.08825719801213</v>
       </c>
       <c r="U27">
-        <v>3.216684008280148</v>
+        <v>2.94907333959484</v>
       </c>
       <c r="V27">
-        <v>574.1744254887252</v>
+        <v>783.5651435237257</v>
       </c>
       <c r="W27">
-        <v>416.6849899176598</v>
+        <v>143.7588563818874</v>
       </c>
       <c r="X27">
         <v>1079.960436335232</v>
       </c>
       <c r="Y27">
-        <v>416.6849899176598</v>
+        <v>98.53964925704247</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>1.458893526268699</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>730.0040201670332</v>
+        <v>1034.285502368665</v>
       </c>
       <c r="H28">
-        <v>34.19222152594156</v>
+        <v>45.63756116147691</v>
       </c>
       <c r="I28">
-        <v>695.8117986410916</v>
+        <v>988.6479412071885</v>
       </c>
       <c r="J28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K28">
-        <v>695.8117986410916</v>
+        <v>1008.36401857119</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.980447460439992</v>
       </c>
       <c r="O28">
-        <v>730.0040201670332</v>
+        <v>1050.433754446795</v>
       </c>
       <c r="P28">
-        <v>34.19222152594156</v>
+        <v>42.06973587560447</v>
       </c>
       <c r="Q28">
-        <v>3.061051863767357</v>
+        <v>3.217629837952286</v>
       </c>
       <c r="R28">
-        <v>591.1476352127619</v>
+        <v>872.9991811430734</v>
       </c>
       <c r="S28">
-        <v>21.3500026493798</v>
+        <v>24.96886972508718</v>
       </c>
       <c r="T28">
-        <v>21.3500026493798</v>
+        <v>22.6630318545969</v>
       </c>
       <c r="U28">
-        <v>3.061051863767357</v>
+        <v>3.120735044293041</v>
       </c>
       <c r="V28">
-        <v>591.1476352127619</v>
+        <v>846.2252047545005</v>
       </c>
       <c r="W28">
-        <v>362.6009525090108</v>
+        <v>69.76480994291387</v>
       </c>
       <c r="X28">
         <v>1058.412751150102</v>
       </c>
       <c r="Y28">
-        <v>362.6009525090108</v>
+        <v>50.048732578912</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>1.393937595380971</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>594.9540728795055</v>
+        <v>949.3250548656964</v>
       </c>
       <c r="H29">
-        <v>19.68391541509144</v>
+        <v>55.35184390673014</v>
       </c>
       <c r="I29">
-        <v>575.2701574644141</v>
+        <v>893.9732109589663</v>
       </c>
       <c r="J29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K29">
-        <v>578.3340644272032</v>
+        <v>893.9732109589662</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N29">
-        <v>0.9947021848595003</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>606.8227363160931</v>
+        <v>949.3250548656964</v>
       </c>
       <c r="P29">
-        <v>28.48867188889009</v>
+        <v>55.35184390673014</v>
       </c>
       <c r="Q29">
-        <v>3.058730185304895</v>
+        <v>2.842041291348614</v>
       </c>
       <c r="R29">
-        <v>491.194903781408</v>
+        <v>736.6609850237561</v>
       </c>
       <c r="S29">
-        <v>21.30049230384586</v>
+        <v>17.15073948512616</v>
       </c>
       <c r="T29">
-        <v>30.22539267890577</v>
+        <v>17.15073948512616</v>
       </c>
       <c r="U29">
-        <v>3.408682388274388</v>
+        <v>2.842041291348614</v>
       </c>
       <c r="V29">
-        <v>508.1739416567091</v>
+        <v>736.6609850237561</v>
       </c>
       <c r="W29">
-        <v>416.3141596926372</v>
+        <v>97.61110619808494</v>
       </c>
       <c r="X29">
         <v>991.5843171570513</v>
       </c>
       <c r="Y29">
-        <v>413.2502527298481</v>
+        <v>97.61110619808505</v>
       </c>
       <c r="Z29">
-        <v>1.007414168394452</v>
+        <v>0.9999999999999989</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>653.0845641438759</v>
+        <v>992.3576910578657</v>
       </c>
       <c r="H30">
-        <v>13.13447425884276</v>
+        <v>18.6555392043005</v>
       </c>
       <c r="I30">
-        <v>639.9500898850332</v>
+        <v>973.7021518535653</v>
       </c>
       <c r="J30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K30">
-        <v>649.8648544697025</v>
+        <v>989.6937374591025</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N30">
-        <v>0.9847433439176213</v>
+        <v>0.9838418846151403</v>
       </c>
       <c r="O30">
-        <v>664.6292723477798</v>
+        <v>1024.934947607054</v>
       </c>
       <c r="P30">
-        <v>14.764417878077</v>
+        <v>35.24121014795073</v>
       </c>
       <c r="Q30">
-        <v>3.807009311392282</v>
+        <v>3.370168283150675</v>
       </c>
       <c r="R30">
-        <v>593.6565781305769</v>
+        <v>870.9249287586318</v>
       </c>
       <c r="S30">
-        <v>45.01560967971903</v>
+        <v>29.08342089571103</v>
       </c>
       <c r="T30">
-        <v>49.72293152154055</v>
+        <v>53.19372869314364</v>
       </c>
       <c r="U30">
-        <v>3.90646622551463</v>
+        <v>3.973940507691178</v>
       </c>
       <c r="V30">
-        <v>588.6407098029727</v>
+        <v>899.5661489167746</v>
       </c>
       <c r="W30">
-        <v>425.3625219005363</v>
+        <v>91.61045993200423</v>
       </c>
       <c r="X30">
         <v>1065.31261178557</v>
       </c>
       <c r="Y30">
-        <v>415.447757315867</v>
+        <v>75.61887432646699</v>
       </c>
       <c r="Z30">
-        <v>1.023865249986489</v>
+        <v>1.211476112914578</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>803.436774448155</v>
+        <v>1135.404266070871</v>
       </c>
       <c r="H31">
-        <v>23.82225208614589</v>
+        <v>53.67850370419304</v>
       </c>
       <c r="I31">
-        <v>779.6145223620091</v>
+        <v>1081.725762366678</v>
       </c>
       <c r="J31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K31">
-        <v>779.614522362009</v>
+        <v>1130.697875296634</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.9566885956010946</v>
       </c>
       <c r="O31">
-        <v>803.4367744481551</v>
+        <v>1167.002855257488</v>
       </c>
       <c r="P31">
-        <v>23.82225208614589</v>
+        <v>36.30497996085406</v>
       </c>
       <c r="Q31">
-        <v>3.518278388924488</v>
+        <v>3.470239158082579</v>
       </c>
       <c r="R31">
-        <v>695.8012076718109</v>
+        <v>1004.710912203074</v>
       </c>
       <c r="S31">
-        <v>33.72631485649516</v>
+        <v>32.14442912558585</v>
       </c>
       <c r="T31">
-        <v>33.72631485649516</v>
+        <v>21.15193583501808</v>
       </c>
       <c r="U31">
-        <v>3.518278388924488</v>
+        <v>3.05173143014624</v>
       </c>
       <c r="V31">
-        <v>695.8012076718107</v>
+        <v>917.913385489371</v>
       </c>
       <c r="W31">
-        <v>401.2574570529588</v>
+        <v>99.1462170482896</v>
       </c>
       <c r="X31">
         <v>1180.871979414968</v>
       </c>
       <c r="Y31">
-        <v>401.2574570529589</v>
+        <v>50.17410411833407</v>
       </c>
       <c r="Z31">
-        <v>0.9999999999999997</v>
+        <v>1.976043594409904</v>
       </c>
     </row>
   </sheetData>
